--- a/Doc/ExcelConfig/Datas/单位/HeroLevelUpConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/单位/HeroLevelUpConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>##</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Exp</t>
   </si>
   <si>
+    <t>TotalTalentPoint</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>所需经验</t>
+  </si>
+  <si>
+    <t>天赋总点数</t>
   </si>
 </sst>
 </file>
@@ -1005,20 +1011,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="6.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,227 +1035,311 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="7">
         <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="7">
         <v>4</v>
       </c>
       <c r="C7" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="7">
         <v>5</v>
       </c>
       <c r="C8" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="7">
         <v>6</v>
       </c>
       <c r="C9" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="7">
         <v>7</v>
       </c>
       <c r="C10" s="4">
         <v>700</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="7">
         <v>8</v>
       </c>
       <c r="C11" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" s="7">
         <v>9</v>
       </c>
       <c r="C12" s="4">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" s="7">
         <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="2:3">
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" s="7">
         <v>11</v>
       </c>
       <c r="C14" s="4">
         <v>1100</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15" s="7">
         <v>12</v>
       </c>
       <c r="C15" s="7">
         <v>1200</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16" s="7">
         <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>1300</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="7">
         <v>14</v>
       </c>
       <c r="C17" s="7">
         <v>1400</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="7">
         <v>15</v>
       </c>
       <c r="C18" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="7">
         <v>16</v>
       </c>
       <c r="C19" s="7">
         <v>1600</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="7">
         <v>17</v>
       </c>
       <c r="C20" s="4">
         <v>1700</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="7">
         <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>1800</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="7">
         <v>19</v>
       </c>
       <c r="C22" s="4">
         <v>1900</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" s="7">
         <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="7">
         <v>21</v>
       </c>
       <c r="C24" s="4">
         <v>2100</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="7">
         <v>22</v>
       </c>
       <c r="C25" s="7">
         <v>2200</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
+      <c r="D25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="7">
         <v>23</v>
       </c>
       <c r="C26" s="4">
         <v>2300</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" s="7">
         <v>24</v>
       </c>
       <c r="C27" s="7">
         <v>2400</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
+      <c r="D27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" s="7">
         <v>25</v>
       </c>
       <c r="C28" s="4">
-        <v>2500</v>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:3">
